--- a/PWMCalculations.xlsx
+++ b/PWMCalculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Massimo\Priv\Ebk\TSDZ2\BT\TSDZ2_ESP32\TSDZ2-Smart-EBike-Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Massimo\Priv\Ebk\TSDZ2\BT\TSDZ2_ESP32\TSDZ2-Smart-EBike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725C9FED-1909-4FF8-BF9C-62850A037C1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D69F28-7A20-4344-9CCC-B1D1972DF03C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="396" windowWidth="18144" windowHeight="12240" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="21276" windowHeight="12240" activeTab="1" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref. Values" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,10 @@
     <t>New SW has an offset angle of 4 (roundx256)  and adds an average offset of 33 counter step to only turn/6 counter</t>
   </si>
   <si>
-    <t>The offset added to the Hall counter is 23 for the states whit a falling edge of the Hall value and 43 to the state with a rising edge (avg = 33)</t>
+    <t>Field Weakening offset max</t>
   </si>
   <si>
-    <t>Field Weakening offset max</t>
+    <t>The offset added to the Hall counter is 23 for the states whit a falling edge of the Hall value and 44 to the state with a rising edge (avg = 33,5)</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2072,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
@@ -2090,10 +2090,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20</c:v>
@@ -2114,10 +2114,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>19</c:v>
@@ -2135,10 +2135,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>18</c:v>
@@ -2156,10 +2156,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>17</c:v>
@@ -2180,7 +2180,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>16</c:v>
@@ -2201,10 +2201,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>15</c:v>
@@ -2222,10 +2222,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>14</c:v>
@@ -2246,7 +2246,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>13</c:v>
@@ -2267,7 +2267,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>12</c:v>
@@ -2291,7 +2291,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>11</c:v>
@@ -2312,7 +2312,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>10</c:v>
@@ -2333,7 +2333,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>9</c:v>
@@ -2378,7 +2378,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>7</c:v>
@@ -2399,7 +2399,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>6</c:v>
@@ -2928,10 +2928,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24</c:v>
@@ -2946,10 +2946,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23</c:v>
@@ -2967,7 +2967,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22</c:v>
@@ -2985,7 +2985,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21</c:v>
@@ -3003,10 +3003,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>20</c:v>
@@ -3021,10 +3021,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19</c:v>
@@ -3039,10 +3039,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>18</c:v>
@@ -3057,10 +3057,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>17</c:v>
@@ -3078,7 +3078,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>16</c:v>
@@ -3096,7 +3096,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>15</c:v>
@@ -3114,7 +3114,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>14</c:v>
@@ -3132,7 +3132,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>13</c:v>
@@ -3150,7 +3150,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>12</c:v>
@@ -3168,7 +3168,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>11</c:v>
@@ -3186,7 +3186,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>10</c:v>
@@ -3204,7 +3204,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>9</c:v>
@@ -3222,7 +3222,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>8</c:v>
@@ -3240,7 +3240,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>7</c:v>
@@ -3258,7 +3258,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>6</c:v>
@@ -3276,7 +3276,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>5</c:v>
@@ -3294,7 +3294,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>4</c:v>
@@ -4418,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652CF362-57A8-41E9-B80F-B52BC9767EEC}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:H18"/>
     </sheetView>
   </sheetViews>
@@ -5548,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1CD390-437C-4C87-9147-4AC4215597A8}">
   <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5574,12 +5574,12 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5604,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="38">
-        <v>33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="F11" s="28">
         <f>TRUNC((($F$7-$F$8)*256)/C11)+F$6</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="36">
         <f>TRUNC((($F$7-$F$8+$G$5)*256)/(C11+F$8))+F$6</f>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ref="F12:F75" si="4">TRUNC((($F$7-$F$8)*256)/C12)+F$6</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" ref="G12:G75" si="5">TRUNC((($F$7-$F$8+$G$5)*256)/(C12+F$8))+F$6</f>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="5"/>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="5"/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="G21" s="36">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="G22" s="36">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" s="36">
         <f t="shared" si="5"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="36">
         <f t="shared" si="5"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="36">
         <f t="shared" si="5"/>
@@ -6341,11 +6341,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="36">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -6585,11 +6585,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="36">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" s="57"/>
       <c r="I40" s="58"/>
@@ -6627,11 +6627,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" s="36">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="58"/>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="G46" s="36">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" s="57"/>
       <c r="I46" s="58"/>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="G47" s="36">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6907,18 +6907,14 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="36">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I48">
-        <f>256*533.3/250000</f>
-        <v>0.54609920000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <f t="shared" si="0"/>
         <v>85.14492753623189</v>
@@ -6946,16 +6942,8 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I49">
-        <f>1/I48</f>
-        <v>1.8311691355709732</v>
-      </c>
-      <c r="J49">
-        <f>I49*4</f>
-        <v>7.3246765422838926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <f t="shared" si="0"/>
         <v>84.239130434782624</v>
@@ -6984,7 +6972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
@@ -7013,7 +7001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <f t="shared" si="0"/>
         <v>82.427536231884062</v>
@@ -7039,10 +7027,10 @@
       </c>
       <c r="G52" s="36">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <f t="shared" si="0"/>
         <v>81.521739130434781</v>
@@ -7068,10 +7056,10 @@
       </c>
       <c r="G53" s="36">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <f t="shared" si="0"/>
         <v>80.615942028985515</v>
@@ -7100,7 +7088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <f t="shared" si="0"/>
         <v>79.710144927536234</v>
@@ -7122,14 +7110,14 @@
       </c>
       <c r="F55" s="28">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" s="36">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <f t="shared" si="0"/>
         <v>78.804347826086953</v>
@@ -7151,14 +7139,14 @@
       </c>
       <c r="F56" s="28">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" s="36">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <f t="shared" si="0"/>
         <v>77.898550724637687</v>
@@ -7187,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <f t="shared" si="0"/>
         <v>76.992753623188406</v>
@@ -7213,10 +7201,10 @@
       </c>
       <c r="G58" s="36">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <f t="shared" si="0"/>
         <v>76.08695652173914</v>
@@ -7242,10 +7230,10 @@
       </c>
       <c r="G59" s="36">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <f t="shared" si="0"/>
         <v>75.181159420289859</v>
@@ -7274,7 +7262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <f t="shared" si="0"/>
         <v>74.275362318840578</v>
@@ -7303,7 +7291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <f t="shared" si="0"/>
         <v>73.369565217391298</v>
@@ -7325,14 +7313,14 @@
       </c>
       <c r="F62" s="28">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" s="36">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <f t="shared" si="0"/>
         <v>72.463768115942031</v>
@@ -7354,14 +7342,14 @@
       </c>
       <c r="F63" s="28">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G63" s="36">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <f t="shared" si="0"/>
         <v>71.557971014492765</v>
@@ -7416,7 +7404,7 @@
       </c>
       <c r="G65" s="36">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -7557,7 +7545,7 @@
       </c>
       <c r="F70" s="28">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="36">
         <f t="shared" si="5"/>
@@ -7590,7 +7578,7 @@
       </c>
       <c r="G71" s="36">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -7760,11 +7748,11 @@
       </c>
       <c r="F77" s="28">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="36">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -7938,7 +7926,7 @@
       </c>
       <c r="G83" s="36">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -7992,7 +7980,7 @@
       </c>
       <c r="F85" s="28">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" s="36">
         <f t="shared" si="11"/>
@@ -8112,7 +8100,7 @@
       </c>
       <c r="G89" s="36">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -8195,7 +8183,7 @@
       </c>
       <c r="F92" s="28">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G92" s="36">
         <f t="shared" si="11"/>
@@ -8286,7 +8274,7 @@
       </c>
       <c r="G95" s="36">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -8398,7 +8386,7 @@
       </c>
       <c r="F99" s="28">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99" s="36">
         <f t="shared" si="11"/>
@@ -8460,7 +8448,7 @@
       </c>
       <c r="G101" s="36">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -8634,7 +8622,7 @@
       </c>
       <c r="G107" s="36">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -8808,7 +8796,7 @@
       </c>
       <c r="G113" s="36">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -8833,7 +8821,7 @@
       </c>
       <c r="F114" s="28">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G114" s="36">
         <f t="shared" si="11"/>
@@ -8982,7 +8970,7 @@
       </c>
       <c r="G119" s="36">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -9036,7 +9024,7 @@
       </c>
       <c r="F121" s="28">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G121" s="36">
         <f t="shared" si="11"/>
@@ -9156,7 +9144,7 @@
       </c>
       <c r="G125" s="36">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -9330,7 +9318,7 @@
       </c>
       <c r="G131" s="36">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -9504,7 +9492,7 @@
       </c>
       <c r="G137" s="36">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">

--- a/PWMCalculations.xlsx
+++ b/PWMCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Massimo\Priv\Ebk\TSDZ2\BT\TSDZ2_ESP32\TSDZ2-Smart-EBike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D69F28-7A20-4344-9CCC-B1D1972DF03C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D158C8C9-E3D2-4F9A-BE19-4B8293599387}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="21276" windowHeight="12240" activeTab="1" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
+    <workbookView xWindow="5616" yWindow="516" windowWidth="16272" windowHeight="12444" activeTab="1" xr2:uid="{0FECAB06-F1EB-47DE-95C0-CE04C98C7007}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref. Values" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>ERPS / RPS</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Offset</t>
   </si>
   <si>
-    <t>In the current firmware the TIM1 interrupt fires two times each PWM cycle (not only one), one time when TIM1 counter counts up (only HAL detection) and one time when counter counts down (HAL detection and motor control)</t>
-  </si>
-  <si>
     <t>Original Firmware</t>
   </si>
   <si>
@@ -77,21 +74,7 @@
     <t>Rotor interpolation calculations: From original firmware to PWM 19KHz and 38KHz IRQ rate</t>
   </si>
   <si>
-    <t>HAL sensor detection done every 26us (38KHz) instead of 64us (15.625KHz) -&gt; lower rotor position interpolation error and  less current ripple.</t>
-  </si>
-  <si>
-    <t>This offset is an addition to the calculated FOC angle. The impact of this offset on alignement between rotor and stator magnetic flux is relevant.
-In the current firmware this interpolation offset is reduced in normal operation, and only when duty cycle reaces the max value, an increasing offset is added using the field weakening feature. The field weakening max angle is calculated from the motor speed and increases from 1 to 6 from  265ERPS to 650 ERPS</t>
-  </si>
-  <si>
     <t>Cnt6 Start</t>
-  </si>
-  <si>
-    <t>In the original 0.20beta firmware, when a HAL transition is detected, the PWM counters are initialized with 1  =&gt; there is a rotor interpolation offset of 1/(ui1_PWM_cycles_counter_total).
-In 0-255 scale,  the offset is (1*256)/(ui16_PWM_cycles_counter_total). =&gt;The offset increases with the rotor speed and decreases with PWM frequency. This is a sort of slip angle  that increases with the rotor speed (see table below)</t>
-  </si>
-  <si>
-    <t>Nota:</t>
   </si>
   <si>
     <t>250000+fw</t>
@@ -125,60 +108,6 @@
   </si>
   <si>
     <t>HALL Counter freq. (Hz)</t>
-  </si>
-  <si>
-    <r>
-      <t>Hall Sensor are checked every PWM cycle -&gt; the transition is detected with an average delay T1 = T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/2 where Tp is the PWM period.
-There is also an additional delay T2 from the start of the PWM interrupt routine until the phase voltage are applied.
-Also T2 is about half of PWM cycle -&gt; T1+T2 is about one PWM cycle = T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .
-The interpolation counter starts with the value 2 (initialized with 1 and then incremented before the interpolation calculation) -&gt; there is a real offset of 1 since 1 for delay compensation</t>
-    </r>
-  </si>
-  <si>
-    <t>FW Originale (Interrupt eseguito 1 volta ogni ciclo PWM):
-Il contatore per il calcolo dell l'interpolazione del rotore fra due successive transizioni del sensore HAL, viene inizializzato con 1 e subito incrementato. In questo modo il valore alla prima transizione del sensore HAL è 2. Considerato che la transizione viene rilevata con un ritardo medio di T/2 e che il duty cycle viene applicato dopo altri T/2 (dove T è l'intervallo fra due interrupts), l'offset reale che viene aggiunto è 1.
-FW Nuovo (Interrupt eseguito 2 volte ogni ciclo PWM):
-Il contatore per l'interpolazione viene qui invece inizializzato con il valore 2 per mantener un offset coerente con il setup iniziale</t>
   </si>
   <si>
     <t>angle offset</t>
@@ -227,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,20 +212,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -598,9 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -610,17 +522,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -652,15 +557,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,17 +569,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4416,10 +4312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652CF362-57A8-41E9-B80F-B52BC9767EEC}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4435,1106 +4331,980 @@
     <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21">
+        <v>41.4</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B6" s="46"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19">
+        <v>19047</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10*$B$4/60</f>
+        <v>1.38</v>
+      </c>
+      <c r="D10" s="6">
+        <f>(C10*$B$3)</f>
+        <v>11.04</v>
+      </c>
+      <c r="E10" s="6">
+        <f>TRUNC($B$7/D10)</f>
+        <v>1725</v>
+      </c>
+      <c r="F10" s="6">
+        <f>TRUNC($B$7/D10/6)</f>
+        <v>287</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10:G21" si="0">360/E10</f>
+        <v>0.20869565217391303</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" ref="H10:H21" si="1">256/E10</f>
+        <v>0.14840579710144927</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:C21" si="2">B11*$B$4/60</f>
+        <v>3.45</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:D21" si="3">(C11*$B$3)</f>
+        <v>27.6</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E21" si="4">TRUNC($B$7/D11)</f>
+        <v>690</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F21" si="5">TRUNC($B$7/D11/6)</f>
+        <v>115</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.37101449275362319</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="3"/>
+        <v>55.2</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="1"/>
+        <v>0.74202898550724639</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>B13*82.8/15</f>
+        <v>165.6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>20.7</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>165.6</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="H13" s="35">
+        <f t="shared" si="1"/>
+        <v>2.2260869565217392</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="13">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14" si="6">B14*$B$4/60</f>
+        <v>27.6</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>220.8</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ref="E14" si="7">TRUNC($B$7/D14)</f>
+        <v>86</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14" si="8">TRUNC($B$7/D14/6)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>4.1860465116279073</v>
+      </c>
+      <c r="H14" s="35">
+        <f t="shared" si="1"/>
+        <v>2.9767441860465116</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>41.4</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="3"/>
+        <v>331.2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="1"/>
+        <v>4.4912280701754383</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>48.3</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="3"/>
+        <v>386.4</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25">
-        <v>41.4</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>7.3469387755102042</v>
+      </c>
+      <c r="H16" s="35">
+        <f t="shared" si="1"/>
+        <v>5.2244897959183669</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="2"/>
+        <v>55.2</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="3"/>
+        <v>441.6</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>8.3720930232558146</v>
+      </c>
+      <c r="H17" s="35">
+        <f t="shared" si="1"/>
+        <v>5.9534883720930232</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="22">
-        <v>19047</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="2"/>
+        <v>62.1</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="3"/>
+        <v>496.8</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="0"/>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="1"/>
+        <v>6.7368421052631575</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="0"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="1"/>
+        <v>7.5294117647058822</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="B20" s="3">
+        <v>110</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="5"/>
         <v>5</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="0"/>
+        <v>11.612903225806452</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="1"/>
+        <v>8.258064516129032</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <f>B21*$B$15/60</f>
-        <v>1.38</v>
-      </c>
-      <c r="D21" s="6">
-        <f>(C21*$B$14)</f>
-        <v>11.04</v>
-      </c>
-      <c r="E21" s="6">
-        <f>TRUNC($B$18/D21)</f>
-        <v>1725</v>
-      </c>
-      <c r="F21" s="6">
-        <f>TRUNC($B$18/D21/6)</f>
-        <v>287</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" ref="G21:G32" si="0">360/E21</f>
-        <v>0.20869565217391303</v>
-      </c>
-      <c r="H21" s="39">
-        <f t="shared" ref="H21:H32" si="1">256/E21</f>
-        <v>0.14840579710144927</v>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
+        <v>120</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="2"/>
+        <v>82.8</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="3"/>
+        <v>662.4</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="H21" s="36">
+        <f t="shared" si="1"/>
+        <v>9.1428571428571423</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:C32" si="2">B22*$B$15/60</f>
-        <v>3.45</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" ref="D22:D32" si="3">(C22*$B$14)</f>
-        <v>27.6</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" ref="E22:E32" si="4">TRUNC($B$18/D22)</f>
-        <v>690</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" ref="F22:F32" si="5">TRUNC($B$18/D22/6)</f>
-        <v>115</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="0"/>
-        <v>0.52173913043478259</v>
-      </c>
-      <c r="H22" s="39">
-        <f t="shared" si="1"/>
-        <v>0.37101449275362319</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="3"/>
-        <v>55.2</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="4"/>
-        <v>345</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="G23" s="20">
-        <f t="shared" si="0"/>
-        <v>1.0434782608695652</v>
-      </c>
-      <c r="H23" s="39">
-        <f t="shared" si="1"/>
-        <v>0.74202898550724639</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="46"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <f>B24*82.8/15</f>
-        <v>165.6</v>
-      </c>
-      <c r="B24" s="3">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="2"/>
-        <v>20.7</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="3"/>
-        <v>165.6</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="G24" s="20">
-        <f t="shared" si="0"/>
-        <v>3.1304347826086958</v>
-      </c>
-      <c r="H24" s="39">
-        <f t="shared" si="1"/>
-        <v>2.2260869565217392</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19">
+        <v>250000</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="13">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25" si="6">B25*$B$15/60</f>
-        <v>27.6</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="3"/>
-        <v>220.8</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25" si="7">TRUNC($B$18/D25)</f>
-        <v>86</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" ref="F25" si="8">TRUNC($B$18/D25/6)</f>
-        <v>14</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" si="0"/>
-        <v>4.1860465116279073</v>
-      </c>
-      <c r="H25" s="39">
-        <f t="shared" si="1"/>
-        <v>2.9767441860465116</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="2"/>
-        <v>41.4</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="3"/>
-        <v>331.2</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="0"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="H26" s="39">
-        <f t="shared" si="1"/>
-        <v>4.4912280701754383</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="2"/>
-        <v>48.3</v>
+        <f>B27*$B$4/60</f>
+        <v>1.38</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="3"/>
-        <v>386.4</v>
+        <f>(C27*$B$3)</f>
+        <v>11.04</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="4"/>
-        <v>49</v>
+        <f>TRUNC($B$24/D27)</f>
+        <v>22644</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G27" s="20">
-        <f t="shared" si="0"/>
-        <v>7.3469387755102042</v>
-      </c>
-      <c r="H27" s="39">
-        <f t="shared" si="1"/>
-        <v>5.2244897959183669</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <f>TRUNC($B$24/D27/6)</f>
+        <v>3774</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" ref="G27:G34" si="9">360/E27</f>
+        <v>1.5898251192368838E-2</v>
+      </c>
+      <c r="H27" s="35">
+        <f t="shared" ref="H27:H34" si="10">256/E27</f>
+        <v>1.1305423070128953E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="2"/>
-        <v>55.2</v>
+        <f t="shared" ref="C28:C38" si="11">B28*$B$4/60</f>
+        <v>3.45</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="3"/>
-        <v>441.6</v>
+        <f t="shared" ref="D28:D38" si="12">(C28*$B$3)</f>
+        <v>27.6</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="4"/>
-        <v>43</v>
+        <f t="shared" ref="E28:E38" si="13">TRUNC($B$24/D28)</f>
+        <v>9057</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="0"/>
-        <v>8.3720930232558146</v>
-      </c>
-      <c r="H28" s="39">
-        <f t="shared" si="1"/>
-        <v>5.9534883720930232</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+        <f t="shared" ref="F28:F38" si="14">TRUNC($B$24/D28/6)</f>
+        <v>1509</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="9"/>
+        <v>3.9748261013580657E-2</v>
+      </c>
+      <c r="H28" s="35">
+        <f t="shared" si="10"/>
+        <v>2.8265430054101801E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="2"/>
-        <v>62.1</v>
+        <f t="shared" si="11"/>
+        <v>6.9</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="3"/>
-        <v>496.8</v>
+        <f t="shared" si="12"/>
+        <v>55.2</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f t="shared" si="13"/>
+        <v>4528</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="0"/>
-        <v>9.473684210526315</v>
-      </c>
-      <c r="H29" s="39">
-        <f t="shared" si="1"/>
-        <v>6.7368421052631575</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <f t="shared" si="14"/>
+        <v>754</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="9"/>
+        <v>7.9505300353356886E-2</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="10"/>
+        <v>5.6537102473498232E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f t="shared" si="11"/>
+        <v>20.7</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="3"/>
-        <v>552</v>
+        <f t="shared" si="12"/>
+        <v>165.6</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="13"/>
+        <v>1509</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="0"/>
-        <v>10.588235294117647</v>
-      </c>
-      <c r="H30" s="39">
-        <f t="shared" si="1"/>
-        <v>7.5294117647058822</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <f t="shared" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="9"/>
+        <v>0.23856858846918488</v>
+      </c>
+      <c r="H30" s="35">
+        <f t="shared" si="10"/>
+        <v>0.16964877402253148</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="3">
-        <v>110</v>
+      <c r="B31" s="13">
+        <v>40</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="2"/>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="3"/>
-        <v>607.20000000000005</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="0"/>
-        <v>11.612903225806452</v>
-      </c>
-      <c r="H31" s="39">
-        <f t="shared" si="1"/>
-        <v>8.258064516129032</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11">
-        <v>120</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="2"/>
-        <v>82.8</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="3"/>
-        <v>662.4</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="0"/>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="H32" s="40">
-        <f t="shared" si="1"/>
-        <v>9.1428571428571423</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="53"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="22">
-        <v>250000</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3">
-        <f>B38*$B$15/60</f>
-        <v>1.38</v>
-      </c>
-      <c r="D38" s="6">
-        <f>(C38*$B$14)</f>
-        <v>11.04</v>
-      </c>
-      <c r="E38" s="6">
-        <f>TRUNC($B$35/D38)</f>
-        <v>22644</v>
-      </c>
-      <c r="F38" s="6">
-        <f>TRUNC($B$35/D38/6)</f>
-        <v>3774</v>
-      </c>
-      <c r="G38" s="20">
-        <f t="shared" ref="G38:G45" si="9">360/E38</f>
-        <v>1.5898251192368838E-2</v>
-      </c>
-      <c r="H38" s="39">
-        <f t="shared" ref="H38:H45" si="10">256/E38</f>
-        <v>1.1305423070128953E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:C49" si="11">B39*$B$15/60</f>
-        <v>3.45</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" ref="D39:D49" si="12">(C39*$B$14)</f>
-        <v>27.6</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" ref="E39:E49" si="13">TRUNC($B$35/D39)</f>
-        <v>9057</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39:F49" si="14">TRUNC($B$35/D39/6)</f>
-        <v>1509</v>
-      </c>
-      <c r="G39" s="20">
-        <f t="shared" si="9"/>
-        <v>3.9748261013580657E-2</v>
-      </c>
-      <c r="H39" s="39">
-        <f t="shared" si="10"/>
-        <v>2.8265430054101801E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="11"/>
-        <v>6.9</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="12"/>
-        <v>55.2</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="13"/>
-        <v>4528</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="14"/>
-        <v>754</v>
-      </c>
-      <c r="G40" s="20">
-        <f t="shared" si="9"/>
-        <v>7.9505300353356886E-2</v>
-      </c>
-      <c r="H40" s="39">
-        <f t="shared" si="10"/>
-        <v>5.6537102473498232E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="11"/>
-        <v>20.7</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" si="12"/>
-        <v>165.6</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="13"/>
-        <v>1509</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="14"/>
-        <v>251</v>
-      </c>
-      <c r="G41" s="20">
-        <f t="shared" si="9"/>
-        <v>0.23856858846918488</v>
-      </c>
-      <c r="H41" s="39">
-        <f t="shared" si="10"/>
-        <v>0.16964877402253148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="13">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3">
         <f t="shared" si="11"/>
         <v>27.6</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D31" s="6">
         <f t="shared" si="12"/>
         <v>220.8</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E31" s="6">
         <f t="shared" si="13"/>
         <v>1132</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="14"/>
         <v>188</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G31" s="17">
         <f t="shared" si="9"/>
         <v>0.31802120141342755</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H31" s="35">
         <f t="shared" si="10"/>
         <v>0.22614840989399293</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
         <v>60</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C32" s="3">
         <f t="shared" si="11"/>
         <v>41.4</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D32" s="6">
         <f t="shared" si="12"/>
         <v>331.2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E32" s="6">
         <f t="shared" si="13"/>
         <v>754</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="14"/>
         <v>125</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G32" s="17">
         <f t="shared" si="9"/>
         <v>0.47745358090185674</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H32" s="35">
         <f t="shared" si="10"/>
         <v>0.33952254641909813</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
         <v>70</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C33" s="3">
         <f t="shared" si="11"/>
         <v>48.3</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D33" s="6">
         <f t="shared" si="12"/>
         <v>386.4</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E33" s="6">
         <f t="shared" si="13"/>
         <v>646</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="14"/>
         <v>107</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G33" s="17">
         <f t="shared" si="9"/>
         <v>0.55727554179566563</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H33" s="35">
         <f t="shared" si="10"/>
         <v>0.39628482972136225</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
         <v>80</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C34" s="3">
         <f t="shared" si="11"/>
         <v>55.2</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D34" s="6">
         <f t="shared" si="12"/>
         <v>441.6</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E34" s="6">
         <f t="shared" si="13"/>
         <v>566</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="14"/>
         <v>94</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G34" s="17">
         <f t="shared" si="9"/>
         <v>0.63604240282685509</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H34" s="35">
         <f t="shared" si="10"/>
         <v>0.45229681978798586</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3">
         <v>90</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C35" s="3">
         <f t="shared" si="11"/>
         <v>62.1</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D35" s="6">
         <f t="shared" si="12"/>
         <v>496.8</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E35" s="6">
         <f t="shared" si="13"/>
         <v>503</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="14"/>
         <v>83</v>
       </c>
-      <c r="G46" s="20">
-        <f>360/E46</f>
+      <c r="G35" s="17">
+        <f>360/E35</f>
         <v>0.71570576540755471</v>
       </c>
-      <c r="H46" s="39">
-        <f>256/E46</f>
+      <c r="H35" s="35">
+        <f>256/E35</f>
         <v>0.50894632206759438</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
         <v>100</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C36" s="3">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D36" s="6">
         <f t="shared" si="12"/>
         <v>552</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E36" s="6">
         <f t="shared" si="13"/>
         <v>452</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="G47" s="20">
-        <f>360/E47</f>
+      <c r="G36" s="17">
+        <f>360/E36</f>
         <v>0.79646017699115046</v>
       </c>
-      <c r="H47" s="39">
-        <f>256/E47</f>
+      <c r="H36" s="35">
+        <f>256/E36</f>
         <v>0.5663716814159292</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3">
         <v>110</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C37" s="3">
         <f t="shared" si="11"/>
         <v>75.900000000000006</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D37" s="6">
         <f t="shared" si="12"/>
         <v>607.20000000000005</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E37" s="6">
         <f t="shared" si="13"/>
         <v>411</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="G48" s="20">
-        <f t="shared" ref="G48" si="15">360/E48</f>
+      <c r="G37" s="17">
+        <f t="shared" ref="G37" si="15">360/E37</f>
         <v>0.87591240875912413</v>
       </c>
-      <c r="H48" s="39">
-        <f t="shared" ref="H48" si="16">256/E48</f>
+      <c r="H37" s="35">
+        <f t="shared" ref="H37" si="16">256/E37</f>
         <v>0.62287104622871048</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11">
         <v>120</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C38" s="11">
         <f t="shared" si="11"/>
         <v>82.8</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="12"/>
         <v>662.4</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E38" s="12">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F38" s="12">
         <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="G49" s="21">
-        <f>360/E49</f>
+      <c r="G38" s="18">
+        <f>360/E38</f>
         <v>0.95490716180371349</v>
       </c>
-      <c r="H49" s="40">
-        <f>256/E49</f>
+      <c r="H38" s="36">
+        <f>256/E38</f>
         <v>0.67904509283819625</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E51" s="23"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A5:L7"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
+  <mergeCells count="4">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5548,14 +5318,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1CD390-437C-4C87-9147-4AC4215597A8}">
   <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.109375" customWidth="1"/>
@@ -5563,23 +5333,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>41</v>
+      <c r="A1" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>42</v>
+      <c r="A2" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>44</v>
+      <c r="A3" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5587,7 +5357,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -5598,18 +5368,18 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="38">
+        <v>13</v>
+      </c>
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="34">
         <v>33.5</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0.8</v>
@@ -5619,118 +5389,118 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="25">
         <v>19047</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <v>250000</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>19</v>
+      <c r="G10" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <f t="shared" ref="A11:A74" si="0">D11/8/41.4*60</f>
         <v>119.56521739130434</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <f>ROUND($E$10/D11,0)</f>
         <v>29</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <f>ROUND($F$10/D11,0)</f>
         <v>379</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="27">
         <v>660</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <f>TRUNC(((E$7-$E$8)*256)/(B11+1))+E$6</f>
         <v>20</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="24">
         <f>TRUNC((($F$7-$F$8)*256)/C11)+F$6</f>
         <v>22</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="32">
         <f>TRUNC((($F$7-$F$8+$G$5)*256)/(C11+F$8))+F$6</f>
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>118.65942028985508</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <f t="shared" ref="B12:B75" si="1">ROUND($E$10/D12,0)</f>
         <v>29</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <f t="shared" ref="C12:C75" si="2">ROUND($F$10/D12,0)</f>
         <v>382</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>655</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <f t="shared" ref="E12:E75" si="3">TRUNC(((E$7-$E$8)*256)/(B12+1))+E$6</f>
         <v>20</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <f t="shared" ref="F12:F75" si="4">TRUNC((($F$7-$F$8)*256)/C12)+F$6</f>
         <v>22</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="32">
         <f t="shared" ref="G12:G75" si="5">TRUNC((($F$7-$F$8+$G$5)*256)/(C12+F$8))+F$6</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>117.7536231884058</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="28">
         <v>650</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -5740,3881 +5510,3875 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>116.84782608695653</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <f t="shared" si="2"/>
         <v>388</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="28">
         <v>645</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="32">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>115.94202898550725</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <f t="shared" si="2"/>
         <v>391</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="28">
         <v>640</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="32">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>115.03623188405797</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <f t="shared" si="2"/>
         <v>394</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>635</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="32">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>114.1304347826087</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <f t="shared" si="2"/>
         <v>397</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="28">
         <v>630</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>113.22463768115942</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>625</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>112.31884057971016</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <f t="shared" si="2"/>
         <v>403</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="28">
         <v>620</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>111.41304347826087</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="28">
         <v>615</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>110.50724637681159</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="28">
         <v>610</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>109.60144927536231</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <f t="shared" si="2"/>
         <v>413</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="28">
         <v>605</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="32">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>108.69565217391305</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="22">
         <f t="shared" si="2"/>
         <v>417</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="28">
         <v>600</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>107.78985507246378</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="28">
         <v>595</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>106.8840579710145</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="28">
         <v>590</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>105.97826086956522</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="22">
         <f t="shared" si="2"/>
         <v>427</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="28">
         <v>585</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>105.07246376811594</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="22">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="28">
         <v>580</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>104.16666666666667</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <f t="shared" si="2"/>
         <v>435</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="28">
         <v>575</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="32">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>103.26086956521739</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <f t="shared" si="2"/>
         <v>439</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="28">
         <v>570</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>102.35507246376812</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <f t="shared" si="2"/>
         <v>442</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="28">
         <v>565</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>101.44927536231884</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="22">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
         <f t="shared" si="2"/>
         <v>446</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="28">
         <v>560</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>100.54347826086956</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="22">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="22">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="28">
         <v>555</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>99.637681159420296</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="22">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="22">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="28">
         <v>550</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>98.731884057971016</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="22">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="22">
         <f t="shared" si="2"/>
         <v>459</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <v>545</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="32">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="35" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>97.826086956521749</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="22">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="22">
         <f t="shared" si="2"/>
         <v>463</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="28">
         <v>540</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H35" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="37"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="33"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="37">
         <f t="shared" si="0"/>
         <v>96.920289855072468</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="37">
         <f t="shared" si="2"/>
         <v>467</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="38">
         <v>535</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="39">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="39">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="37"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="33"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>96.014492753623188</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="22">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="22">
         <f t="shared" si="2"/>
         <v>472</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="28">
         <v>530</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="37"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="33"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>95.108695652173921</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="22">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="22">
         <f t="shared" si="2"/>
         <v>476</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="28">
         <v>525</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="37"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="33"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>94.20289855072464</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="22">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="22">
         <f t="shared" si="2"/>
         <v>481</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="28">
         <v>520</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="37"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="33"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>93.297101449275374</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="22">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="22">
         <f t="shared" si="2"/>
         <v>485</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="28">
         <v>515</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="37"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="33"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
+      <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>92.391304347826079</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="22">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="22">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="28">
         <v>510</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="32">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="37"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="33"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
+      <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>91.485507246376812</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="22">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="22">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="28">
         <v>505</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="37"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="33"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
+      <c r="A43" s="22">
         <f t="shared" si="0"/>
         <v>90.579710144927532</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="22">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="22">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="28">
         <v>500</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="37"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="33"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
+      <c r="A44" s="22">
         <f t="shared" si="0"/>
         <v>89.673913043478265</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="22">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="22">
         <f t="shared" si="2"/>
         <v>505</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="28">
         <v>495</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="37"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="33"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
+      <c r="A45" s="22">
         <f t="shared" si="0"/>
         <v>88.768115942028999</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="22">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="22">
         <f t="shared" si="2"/>
         <v>510</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="28">
         <v>490</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="37"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="33"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>87.862318840579704</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="22">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="22">
         <f t="shared" si="2"/>
         <v>515</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="28">
         <v>485</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
+      <c r="A47" s="22">
         <f t="shared" si="0"/>
         <v>86.956521739130437</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="22">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="22">
         <f t="shared" si="2"/>
         <v>521</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="28">
         <v>480</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
+      <c r="A48" s="22">
         <f t="shared" si="0"/>
         <v>86.050724637681157</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="22">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="22">
         <f t="shared" si="2"/>
         <v>526</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="28">
         <v>475</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
+      <c r="A49" s="22">
         <f t="shared" si="0"/>
         <v>85.14492753623189</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="22">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="22">
         <f t="shared" si="2"/>
         <v>532</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="28">
         <v>470</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
+      <c r="A50" s="22">
         <f t="shared" si="0"/>
         <v>84.239130434782624</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="22">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="22">
         <f t="shared" si="2"/>
         <v>538</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="28">
         <v>465</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
+      <c r="A51" s="22">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="22">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="22">
         <f t="shared" si="2"/>
         <v>543</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="28">
         <v>460</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="26">
+      <c r="A52" s="22">
         <f t="shared" si="0"/>
         <v>82.427536231884062</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="22">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="22">
         <f t="shared" si="2"/>
         <v>549</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="28">
         <v>455</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
+      <c r="A53" s="22">
         <f t="shared" si="0"/>
         <v>81.521739130434781</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="22">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="22">
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="28">
         <v>450</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="32">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="26">
+      <c r="A54" s="22">
         <f t="shared" si="0"/>
         <v>80.615942028985515</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="22">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="22">
         <f t="shared" si="2"/>
         <v>562</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="28">
         <v>445</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
+      <c r="A55" s="22">
         <f t="shared" si="0"/>
         <v>79.710144927536234</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="22">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="22">
         <f t="shared" si="2"/>
         <v>568</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="28">
         <v>440</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
+      <c r="A56" s="22">
         <f t="shared" si="0"/>
         <v>78.804347826086953</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="22">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="22">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="28">
         <v>435</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
+      <c r="A57" s="22">
         <f t="shared" si="0"/>
         <v>77.898550724637687</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="22">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="22">
         <f t="shared" si="2"/>
         <v>581</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="28">
         <v>430</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="26">
+      <c r="A58" s="22">
         <f t="shared" si="0"/>
         <v>76.992753623188406</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="22">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="28">
         <v>425</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+      <c r="A59" s="22">
         <f t="shared" si="0"/>
         <v>76.08695652173914</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="22">
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="28">
         <v>420</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+      <c r="A60" s="22">
         <f t="shared" si="0"/>
         <v>75.181159420289859</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="22">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="22">
         <f t="shared" si="2"/>
         <v>602</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="28">
         <v>415</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
+      <c r="A61" s="22">
         <f t="shared" si="0"/>
         <v>74.275362318840578</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="22">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="22">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="28">
         <v>410</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="26">
+      <c r="A62" s="22">
         <f t="shared" si="0"/>
         <v>73.369565217391298</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="22">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="22">
         <f t="shared" si="2"/>
         <v>617</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="28">
         <v>405</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="26">
+      <c r="A63" s="22">
         <f t="shared" si="0"/>
         <v>72.463768115942031</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="22">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="22">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="28">
         <v>400</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
+      <c r="A64" s="22">
         <f t="shared" si="0"/>
         <v>71.557971014492765</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="22">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="22">
         <f t="shared" si="2"/>
         <v>633</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="28">
         <v>395</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="26">
+      <c r="A65" s="22">
         <f t="shared" si="0"/>
         <v>70.652173913043484</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="22">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="22">
         <f t="shared" si="2"/>
         <v>641</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="28">
         <v>390</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="32">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="26">
+      <c r="A66" s="22">
         <f t="shared" si="0"/>
         <v>69.746376811594203</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="22">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="22">
         <f t="shared" si="2"/>
         <v>649</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="28">
         <v>385</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G66" s="36">
+      <c r="G66" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
+      <c r="A67" s="22">
         <f t="shared" si="0"/>
         <v>68.840579710144922</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="22">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="22">
         <f t="shared" si="2"/>
         <v>658</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="28">
         <v>380</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G67" s="36">
+      <c r="G67" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="26">
+      <c r="A68" s="22">
         <f t="shared" si="0"/>
         <v>67.934782608695656</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="22">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="22">
         <f t="shared" si="2"/>
         <v>667</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="28">
         <v>375</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
+      <c r="A69" s="22">
         <f t="shared" si="0"/>
         <v>67.028985507246375</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="22">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="22">
         <f t="shared" si="2"/>
         <v>676</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="28">
         <v>370</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G69" s="36">
+      <c r="G69" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="26">
+      <c r="A70" s="22">
         <f t="shared" si="0"/>
         <v>66.123188405797109</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="22">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="22">
         <f t="shared" si="2"/>
         <v>685</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="28">
         <v>365</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
+      <c r="A71" s="22">
         <f t="shared" si="0"/>
         <v>65.217391304347828</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="22">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="22">
         <f t="shared" si="2"/>
         <v>694</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="28">
         <v>360</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G71" s="36">
+      <c r="G71" s="32">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
+      <c r="A72" s="22">
         <f t="shared" si="0"/>
         <v>64.311594202898547</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="22">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="22">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="28">
         <v>355</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G72" s="32">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
+      <c r="A73" s="22">
         <f t="shared" si="0"/>
         <v>63.405797101449281</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="22">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="22">
         <f t="shared" si="2"/>
         <v>714</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="28">
         <v>350</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G73" s="36">
+      <c r="G73" s="32">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
+      <c r="A74" s="22">
         <f t="shared" si="0"/>
         <v>62.500000000000007</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="22">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="22">
         <f t="shared" si="2"/>
         <v>725</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="28">
         <v>345</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G74" s="36">
+      <c r="G74" s="32">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
+      <c r="A75" s="22">
         <f t="shared" ref="A75:A83" si="6">D75/8/41.4*60</f>
         <v>61.594202898550733</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="22">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="22">
         <f t="shared" si="2"/>
         <v>735</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="28">
         <v>340</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G75" s="36">
+      <c r="G75" s="32">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="26">
+      <c r="A76" s="22">
         <f t="shared" si="6"/>
         <v>60.688405797101446</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="22">
         <f t="shared" ref="B76:B139" si="7">ROUND($E$10/D76,0)</f>
         <v>57</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="22">
         <f t="shared" ref="C76:C139" si="8">ROUND($F$10/D76,0)</f>
         <v>746</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="28">
         <v>335</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="24">
         <f t="shared" ref="E76:E139" si="9">TRUNC(((E$7-$E$8)*256)/(B76+1))+E$6</f>
         <v>15</v>
       </c>
-      <c r="F76" s="28">
+      <c r="F76" s="24">
         <f t="shared" ref="F76:F139" si="10">TRUNC((($F$7-$F$8)*256)/C76)+F$6</f>
         <v>13</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G76" s="32">
         <f t="shared" ref="G76:G139" si="11">TRUNC((($F$7-$F$8+$G$5)*256)/(C76+F$8))+F$6</f>
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
+      <c r="A77" s="22">
         <f t="shared" si="6"/>
         <v>59.782608695652172</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="22">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C77" s="22">
         <f t="shared" si="8"/>
         <v>758</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="28">
         <v>330</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="24">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="24">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="32">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="27">
+      <c r="A78" s="23">
         <f t="shared" si="6"/>
         <v>58.876811594202898</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="22">
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="22">
         <f t="shared" si="8"/>
         <v>769</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="29">
         <v>325</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="24">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G78" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
+      <c r="A79" s="22">
         <f t="shared" si="6"/>
         <v>57.971014492753625</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="22">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="22">
         <f t="shared" si="8"/>
         <v>781</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="28">
         <v>320</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="24">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="26">
+      <c r="A80" s="22">
         <f t="shared" si="6"/>
         <v>57.065217391304351</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="22">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="22">
         <f t="shared" si="8"/>
         <v>794</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="28">
         <v>315</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="24">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G80" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="26">
+      <c r="A81" s="22">
         <f t="shared" si="6"/>
         <v>56.159420289855078</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="22">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="22">
         <f t="shared" si="8"/>
         <v>806</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="28">
         <v>310</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="26">
+      <c r="A82" s="22">
         <f t="shared" si="6"/>
         <v>55.253623188405797</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="22">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="22">
         <f t="shared" si="8"/>
         <v>820</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="28">
         <v>305</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F82" s="28">
+      <c r="F82" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G82" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="26">
+      <c r="A83" s="22">
         <f t="shared" si="6"/>
         <v>54.347826086956523</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B83" s="22">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="22">
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="28">
         <v>300</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G83" s="36">
+      <c r="G83" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="26">
+      <c r="A84" s="22">
         <f>D84/8/41.4*60</f>
         <v>53.44202898550725</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="22">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="C84" s="26">
+      <c r="C84" s="22">
         <f t="shared" si="8"/>
         <v>847</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="28">
         <v>295</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="26">
+      <c r="A85" s="22">
         <f t="shared" ref="A85:A141" si="12">D85/8/41.4*60</f>
         <v>52.536231884057969</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B85" s="22">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="22">
         <f t="shared" si="8"/>
         <v>862</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="28">
         <v>290</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E85" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="24">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="26">
+      <c r="A86" s="22">
         <f t="shared" si="12"/>
         <v>51.630434782608695</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B86" s="22">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="22">
         <f t="shared" si="8"/>
         <v>877</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="28">
         <v>285</v>
       </c>
-      <c r="E86" s="28">
+      <c r="E86" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F86" s="28">
+      <c r="F86" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G86" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="26">
+      <c r="A87" s="22">
         <f t="shared" si="12"/>
         <v>50.724637681159422</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B87" s="22">
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="22">
         <f t="shared" si="8"/>
         <v>893</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="28">
         <v>280</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G87" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="26">
+      <c r="A88" s="22">
         <f t="shared" si="12"/>
         <v>49.818840579710148</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B88" s="22">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="22">
         <f t="shared" si="8"/>
         <v>909</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="28">
         <v>275</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G88" s="36">
+      <c r="G88" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="26">
+      <c r="A89" s="22">
         <f t="shared" si="12"/>
         <v>48.913043478260875</v>
       </c>
-      <c r="B89" s="26">
+      <c r="B89" s="22">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="22">
         <f t="shared" si="8"/>
         <v>926</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="28">
         <v>270</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="26">
+      <c r="A90" s="22">
         <f t="shared" si="12"/>
         <v>48.007246376811594</v>
       </c>
-      <c r="B90" s="26">
+      <c r="B90" s="22">
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="22">
         <f t="shared" si="8"/>
         <v>943</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="28">
         <v>265</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G90" s="36">
+      <c r="G90" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="26">
+      <c r="A91" s="22">
         <f t="shared" si="12"/>
         <v>47.10144927536232</v>
       </c>
-      <c r="B91" s="26">
+      <c r="B91" s="22">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="22">
         <f t="shared" si="8"/>
         <v>962</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="28">
         <v>260</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G91" s="36">
+      <c r="G91" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="26">
+      <c r="A92" s="22">
         <f t="shared" si="12"/>
         <v>46.195652173913039</v>
       </c>
-      <c r="B92" s="26">
+      <c r="B92" s="22">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="C92" s="26">
+      <c r="C92" s="22">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="28">
         <v>255</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E92" s="24">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="24">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G92" s="36">
+      <c r="G92" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="26">
+      <c r="A93" s="22">
         <f t="shared" si="12"/>
         <v>45.289855072463766</v>
       </c>
-      <c r="B93" s="26">
+      <c r="B93" s="22">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="C93" s="26">
+      <c r="C93" s="22">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="28">
         <v>250</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G93" s="36">
+      <c r="G93" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="26">
+      <c r="A94" s="22">
         <f t="shared" si="12"/>
         <v>44.384057971014499</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B94" s="22">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="22">
         <f t="shared" si="8"/>
         <v>1020</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="28">
         <v>245</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E94" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F94" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G94" s="36">
+      <c r="G94" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="26">
+      <c r="A95" s="22">
         <f t="shared" si="12"/>
         <v>43.478260869565219</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B95" s="22">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="22">
         <f t="shared" si="8"/>
         <v>1042</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="28">
         <v>240</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G95" s="36">
+      <c r="G95" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="26">
+      <c r="A96" s="22">
         <f t="shared" si="12"/>
         <v>42.572463768115945</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="22">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="22">
         <f t="shared" si="8"/>
         <v>1064</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="28">
         <v>235</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F96" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G96" s="36">
+      <c r="G96" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="26">
+      <c r="A97" s="22">
         <f t="shared" si="12"/>
         <v>41.666666666666664</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B97" s="22">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="22">
         <f t="shared" si="8"/>
         <v>1087</v>
       </c>
-      <c r="D97" s="32">
+      <c r="D97" s="28">
         <v>230</v>
       </c>
-      <c r="E97" s="28">
+      <c r="E97" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F97" s="28">
+      <c r="F97" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G97" s="36">
+      <c r="G97" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="26">
+      <c r="A98" s="22">
         <f t="shared" si="12"/>
         <v>40.760869565217391</v>
       </c>
-      <c r="B98" s="26">
+      <c r="B98" s="22">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="22">
         <f t="shared" si="8"/>
         <v>1111</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D98" s="28">
         <v>225</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G98" s="36">
+      <c r="G98" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="26">
+      <c r="A99" s="22">
         <f t="shared" si="12"/>
         <v>39.855072463768117</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="22">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="22">
         <f t="shared" si="8"/>
         <v>1136</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="28">
         <v>220</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F99" s="24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G99" s="36">
+      <c r="G99" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="26">
+      <c r="A100" s="22">
         <f t="shared" si="12"/>
         <v>38.949275362318843</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="22">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="22">
         <f t="shared" si="8"/>
         <v>1163</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="28">
         <v>215</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F100" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G100" s="36">
+      <c r="G100" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="26">
+      <c r="A101" s="22">
         <f t="shared" si="12"/>
         <v>38.04347826086957</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B101" s="22">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="22">
         <f t="shared" si="8"/>
         <v>1190</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="28">
         <v>210</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F101" s="28">
+      <c r="F101" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G101" s="36">
+      <c r="G101" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="26">
+      <c r="A102" s="22">
         <f t="shared" si="12"/>
         <v>37.137681159420289</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="22">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C102" s="22">
         <f t="shared" si="8"/>
         <v>1220</v>
       </c>
-      <c r="D102" s="32">
+      <c r="D102" s="28">
         <v>205</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E102" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F102" s="28">
+      <c r="F102" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G102" s="36">
+      <c r="G102" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="26">
+      <c r="A103" s="22">
         <f t="shared" si="12"/>
         <v>36.231884057971016</v>
       </c>
-      <c r="B103" s="26">
+      <c r="B103" s="22">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="22">
         <f t="shared" si="8"/>
         <v>1250</v>
       </c>
-      <c r="D103" s="32">
+      <c r="D103" s="28">
         <v>200</v>
       </c>
-      <c r="E103" s="28">
+      <c r="E103" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F103" s="28">
+      <c r="F103" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G103" s="36">
+      <c r="G103" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="26">
+      <c r="A104" s="22">
         <f t="shared" si="12"/>
         <v>35.326086956521742</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B104" s="22">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="22">
         <f t="shared" si="8"/>
         <v>1282</v>
       </c>
-      <c r="D104" s="32">
+      <c r="D104" s="28">
         <v>195</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E104" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F104" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G104" s="36">
+      <c r="G104" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="26">
+      <c r="A105" s="22">
         <f t="shared" si="12"/>
         <v>34.420289855072461</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B105" s="22">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="C105" s="26">
+      <c r="C105" s="22">
         <f t="shared" si="8"/>
         <v>1316</v>
       </c>
-      <c r="D105" s="32">
+      <c r="D105" s="28">
         <v>190</v>
       </c>
-      <c r="E105" s="28">
+      <c r="E105" s="24">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F105" s="28">
+      <c r="F105" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G105" s="36">
+      <c r="G105" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="26">
+      <c r="A106" s="22">
         <f t="shared" si="12"/>
         <v>33.514492753623188</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="22">
         <f t="shared" si="7"/>
         <v>103</v>
       </c>
-      <c r="C106" s="26">
+      <c r="C106" s="22">
         <f t="shared" si="8"/>
         <v>1351</v>
       </c>
-      <c r="D106" s="32">
+      <c r="D106" s="28">
         <v>185</v>
       </c>
-      <c r="E106" s="28">
+      <c r="E106" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F106" s="28">
+      <c r="F106" s="24">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G106" s="36">
+      <c r="G106" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="26">
+      <c r="A107" s="22">
         <f t="shared" si="12"/>
         <v>32.608695652173914</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="22">
         <f t="shared" si="7"/>
         <v>106</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="22">
         <f t="shared" si="8"/>
         <v>1389</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107" s="28">
         <v>180</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E107" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F107" s="28">
+      <c r="F107" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G107" s="36">
+      <c r="G107" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="26">
+      <c r="A108" s="22">
         <f t="shared" si="12"/>
         <v>31.70289855072464</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B108" s="22">
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="22">
         <f t="shared" si="8"/>
         <v>1429</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="28">
         <v>175</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F108" s="28">
+      <c r="F108" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G108" s="36">
+      <c r="G108" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="26">
+      <c r="A109" s="22">
         <f t="shared" si="12"/>
         <v>30.797101449275367</v>
       </c>
-      <c r="B109" s="26">
+      <c r="B109" s="22">
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C109" s="22">
         <f t="shared" si="8"/>
         <v>1471</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="28">
         <v>170</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F109" s="28">
+      <c r="F109" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G109" s="36">
+      <c r="G109" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="26">
+      <c r="A110" s="22">
         <f t="shared" si="12"/>
         <v>29.891304347826086</v>
       </c>
-      <c r="B110" s="26">
+      <c r="B110" s="22">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C110" s="22">
         <f t="shared" si="8"/>
         <v>1515</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110" s="28">
         <v>165</v>
       </c>
-      <c r="E110" s="28">
+      <c r="E110" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F110" s="28">
+      <c r="F110" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G110" s="36">
+      <c r="G110" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="26">
+      <c r="A111" s="22">
         <f t="shared" si="12"/>
         <v>28.985507246376812</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="22">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C111" s="22">
         <f t="shared" si="8"/>
         <v>1563</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="28">
         <v>160</v>
       </c>
-      <c r="E111" s="28">
+      <c r="E111" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F111" s="28">
+      <c r="F111" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G111" s="36">
+      <c r="G111" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="26">
+      <c r="A112" s="22">
         <f t="shared" si="12"/>
         <v>28.079710144927539</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="22">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="C112" s="26">
+      <c r="C112" s="22">
         <f t="shared" si="8"/>
         <v>1613</v>
       </c>
-      <c r="D112" s="32">
+      <c r="D112" s="28">
         <v>155</v>
       </c>
-      <c r="E112" s="28">
+      <c r="E112" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F112" s="28">
+      <c r="F112" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G112" s="36">
+      <c r="G112" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="26">
+      <c r="A113" s="22">
         <f t="shared" si="12"/>
         <v>27.173913043478262</v>
       </c>
-      <c r="B113" s="26">
+      <c r="B113" s="22">
         <f t="shared" si="7"/>
         <v>127</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="22">
         <f t="shared" si="8"/>
         <v>1667</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D113" s="28">
         <v>150</v>
       </c>
-      <c r="E113" s="28">
+      <c r="E113" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F113" s="28">
+      <c r="F113" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G113" s="36">
+      <c r="G113" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="26">
+      <c r="A114" s="22">
         <f t="shared" si="12"/>
         <v>26.268115942028984</v>
       </c>
-      <c r="B114" s="26">
+      <c r="B114" s="22">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="C114" s="26">
+      <c r="C114" s="22">
         <f t="shared" si="8"/>
         <v>1724</v>
       </c>
-      <c r="D114" s="32">
+      <c r="D114" s="28">
         <v>145</v>
       </c>
-      <c r="E114" s="28">
+      <c r="E114" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F114" s="28">
+      <c r="F114" s="24">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="G114" s="36">
+      <c r="G114" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="26">
+      <c r="A115" s="22">
         <f t="shared" si="12"/>
         <v>25.362318840579711</v>
       </c>
-      <c r="B115" s="26">
+      <c r="B115" s="22">
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="C115" s="26">
+      <c r="C115" s="22">
         <f t="shared" si="8"/>
         <v>1786</v>
       </c>
-      <c r="D115" s="32">
+      <c r="D115" s="28">
         <v>140</v>
       </c>
-      <c r="E115" s="28">
+      <c r="E115" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F115" s="28">
+      <c r="F115" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G115" s="36">
+      <c r="G115" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="26">
+      <c r="A116" s="22">
         <f t="shared" si="12"/>
         <v>24.456521739130437</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="22">
         <f t="shared" si="7"/>
         <v>141</v>
       </c>
-      <c r="C116" s="26">
+      <c r="C116" s="22">
         <f t="shared" si="8"/>
         <v>1852</v>
       </c>
-      <c r="D116" s="32">
+      <c r="D116" s="28">
         <v>135</v>
       </c>
-      <c r="E116" s="28">
+      <c r="E116" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F116" s="28">
+      <c r="F116" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G116" s="36">
+      <c r="G116" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="26">
+      <c r="A117" s="22">
         <f t="shared" si="12"/>
         <v>23.55072463768116</v>
       </c>
-      <c r="B117" s="26">
+      <c r="B117" s="22">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="C117" s="26">
+      <c r="C117" s="22">
         <f t="shared" si="8"/>
         <v>1923</v>
       </c>
-      <c r="D117" s="32">
+      <c r="D117" s="28">
         <v>130</v>
       </c>
-      <c r="E117" s="28">
+      <c r="E117" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F117" s="28">
+      <c r="F117" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G117" s="36">
+      <c r="G117" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="26">
+      <c r="A118" s="22">
         <f t="shared" si="12"/>
         <v>22.644927536231883</v>
       </c>
-      <c r="B118" s="26">
+      <c r="B118" s="22">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="C118" s="26">
+      <c r="C118" s="22">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="D118" s="32">
+      <c r="D118" s="28">
         <v>125</v>
       </c>
-      <c r="E118" s="28">
+      <c r="E118" s="24">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F118" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G118" s="36">
+      <c r="G118" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="26">
+      <c r="A119" s="22">
         <f t="shared" si="12"/>
         <v>21.739130434782609</v>
       </c>
-      <c r="B119" s="26">
+      <c r="B119" s="22">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="C119" s="26">
+      <c r="C119" s="22">
         <f t="shared" si="8"/>
         <v>2083</v>
       </c>
-      <c r="D119" s="32">
+      <c r="D119" s="28">
         <v>120</v>
       </c>
-      <c r="E119" s="28">
+      <c r="E119" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F119" s="28">
+      <c r="F119" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G119" s="36">
+      <c r="G119" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="26">
+      <c r="A120" s="22">
         <f t="shared" si="12"/>
         <v>20.833333333333332</v>
       </c>
-      <c r="B120" s="26">
+      <c r="B120" s="22">
         <f t="shared" si="7"/>
         <v>166</v>
       </c>
-      <c r="C120" s="26">
+      <c r="C120" s="22">
         <f t="shared" si="8"/>
         <v>2174</v>
       </c>
-      <c r="D120" s="32">
+      <c r="D120" s="28">
         <v>115</v>
       </c>
-      <c r="E120" s="28">
+      <c r="E120" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F120" s="28">
+      <c r="F120" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G120" s="36">
+      <c r="G120" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="26">
+      <c r="A121" s="22">
         <f t="shared" si="12"/>
         <v>19.927536231884059</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B121" s="22">
         <f t="shared" si="7"/>
         <v>173</v>
       </c>
-      <c r="C121" s="26">
+      <c r="C121" s="22">
         <f t="shared" si="8"/>
         <v>2273</v>
       </c>
-      <c r="D121" s="32">
+      <c r="D121" s="28">
         <v>110</v>
       </c>
-      <c r="E121" s="28">
+      <c r="E121" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F121" s="28">
+      <c r="F121" s="24">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="G121" s="36">
+      <c r="G121" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="26">
+      <c r="A122" s="22">
         <f t="shared" si="12"/>
         <v>19.021739130434785</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="22">
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
-      <c r="C122" s="26">
+      <c r="C122" s="22">
         <f t="shared" si="8"/>
         <v>2381</v>
       </c>
-      <c r="D122" s="32">
+      <c r="D122" s="28">
         <v>105</v>
       </c>
-      <c r="E122" s="28">
+      <c r="E122" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F122" s="28">
+      <c r="F122" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G122" s="36">
+      <c r="G122" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="26">
+      <c r="A123" s="22">
         <f t="shared" si="12"/>
         <v>18.115942028985508</v>
       </c>
-      <c r="B123" s="26">
+      <c r="B123" s="22">
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="C123" s="26">
+      <c r="C123" s="22">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="D123" s="32">
+      <c r="D123" s="28">
         <v>100</v>
       </c>
-      <c r="E123" s="28">
+      <c r="E123" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F123" s="28">
+      <c r="F123" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G123" s="36">
+      <c r="G123" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="26">
+      <c r="A124" s="22">
         <f t="shared" si="12"/>
         <v>17.210144927536231</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="22">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="C124" s="26">
+      <c r="C124" s="22">
         <f t="shared" si="8"/>
         <v>2632</v>
       </c>
-      <c r="D124" s="32">
+      <c r="D124" s="28">
         <v>95</v>
       </c>
-      <c r="E124" s="28">
+      <c r="E124" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F124" s="28">
+      <c r="F124" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G124" s="36">
+      <c r="G124" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="26">
+      <c r="A125" s="22">
         <f t="shared" si="12"/>
         <v>16.304347826086957</v>
       </c>
-      <c r="B125" s="26">
+      <c r="B125" s="22">
         <f t="shared" si="7"/>
         <v>212</v>
       </c>
-      <c r="C125" s="26">
+      <c r="C125" s="22">
         <f t="shared" si="8"/>
         <v>2778</v>
       </c>
-      <c r="D125" s="32">
+      <c r="D125" s="28">
         <v>90</v>
       </c>
-      <c r="E125" s="28">
+      <c r="E125" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F125" s="28">
+      <c r="F125" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G125" s="36">
+      <c r="G125" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="26">
+      <c r="A126" s="22">
         <f t="shared" si="12"/>
         <v>15.398550724637683</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B126" s="22">
         <f t="shared" si="7"/>
         <v>224</v>
       </c>
-      <c r="C126" s="26">
+      <c r="C126" s="22">
         <f t="shared" si="8"/>
         <v>2941</v>
       </c>
-      <c r="D126" s="32">
+      <c r="D126" s="28">
         <v>85</v>
       </c>
-      <c r="E126" s="28">
+      <c r="E126" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F126" s="28">
+      <c r="F126" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G126" s="36">
+      <c r="G126" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="26">
+      <c r="A127" s="22">
         <f t="shared" si="12"/>
         <v>14.492753623188406</v>
       </c>
-      <c r="B127" s="26">
+      <c r="B127" s="22">
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
-      <c r="C127" s="26">
+      <c r="C127" s="22">
         <f t="shared" si="8"/>
         <v>3125</v>
       </c>
-      <c r="D127" s="32">
+      <c r="D127" s="28">
         <v>80</v>
       </c>
-      <c r="E127" s="28">
+      <c r="E127" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F127" s="28">
+      <c r="F127" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G127" s="36">
+      <c r="G127" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="26">
+      <c r="A128" s="22">
         <f t="shared" si="12"/>
         <v>13.586956521739131</v>
       </c>
-      <c r="B128" s="26">
+      <c r="B128" s="22">
         <f t="shared" si="7"/>
         <v>254</v>
       </c>
-      <c r="C128" s="26">
+      <c r="C128" s="22">
         <f t="shared" si="8"/>
         <v>3333</v>
       </c>
-      <c r="D128" s="32">
+      <c r="D128" s="28">
         <v>75</v>
       </c>
-      <c r="E128" s="28">
+      <c r="E128" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F128" s="28">
+      <c r="F128" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="G128" s="36">
+      <c r="G128" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="26">
+      <c r="A129" s="22">
         <f t="shared" si="12"/>
         <v>12.681159420289855</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="22">
         <f t="shared" si="7"/>
         <v>272</v>
       </c>
-      <c r="C129" s="26">
+      <c r="C129" s="22">
         <f t="shared" si="8"/>
         <v>3571</v>
       </c>
-      <c r="D129" s="32">
+      <c r="D129" s="28">
         <v>70</v>
       </c>
-      <c r="E129" s="28">
+      <c r="E129" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F129" s="28">
+      <c r="F129" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G129" s="36">
+      <c r="G129" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="26">
+      <c r="A130" s="22">
         <f t="shared" si="12"/>
         <v>11.77536231884058</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B130" s="22">
         <f t="shared" si="7"/>
         <v>293</v>
       </c>
-      <c r="C130" s="26">
+      <c r="C130" s="22">
         <f t="shared" si="8"/>
         <v>3846</v>
       </c>
-      <c r="D130" s="32">
+      <c r="D130" s="28">
         <v>65</v>
       </c>
-      <c r="E130" s="28">
+      <c r="E130" s="24">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="F130" s="28">
+      <c r="F130" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G130" s="36">
+      <c r="G130" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="26">
+      <c r="A131" s="22">
         <f t="shared" si="12"/>
         <v>10.869565217391305</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="22">
         <f t="shared" si="7"/>
         <v>317</v>
       </c>
-      <c r="C131" s="26">
+      <c r="C131" s="22">
         <f t="shared" si="8"/>
         <v>4167</v>
       </c>
-      <c r="D131" s="32">
+      <c r="D131" s="28">
         <v>60</v>
       </c>
-      <c r="E131" s="28">
+      <c r="E131" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F131" s="28">
+      <c r="F131" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G131" s="36">
+      <c r="G131" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="26">
+      <c r="A132" s="22">
         <f t="shared" si="12"/>
         <v>9.9637681159420293</v>
       </c>
-      <c r="B132" s="26">
+      <c r="B132" s="22">
         <f t="shared" si="7"/>
         <v>346</v>
       </c>
-      <c r="C132" s="26">
+      <c r="C132" s="22">
         <f t="shared" si="8"/>
         <v>4545</v>
       </c>
-      <c r="D132" s="32">
+      <c r="D132" s="28">
         <v>55</v>
       </c>
-      <c r="E132" s="28">
+      <c r="E132" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F132" s="28">
+      <c r="F132" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G132" s="36">
+      <c r="G132" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="26">
+      <c r="A133" s="22">
         <f t="shared" si="12"/>
         <v>9.0579710144927539</v>
       </c>
-      <c r="B133" s="26">
+      <c r="B133" s="22">
         <f t="shared" si="7"/>
         <v>381</v>
       </c>
-      <c r="C133" s="26">
+      <c r="C133" s="22">
         <f t="shared" si="8"/>
         <v>5000</v>
       </c>
-      <c r="D133" s="32">
+      <c r="D133" s="28">
         <v>50</v>
       </c>
-      <c r="E133" s="28">
+      <c r="E133" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F133" s="28">
+      <c r="F133" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G133" s="36">
+      <c r="G133" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="26">
+      <c r="A134" s="22">
         <f t="shared" si="12"/>
         <v>8.1521739130434785</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="22">
         <f t="shared" si="7"/>
         <v>423</v>
       </c>
-      <c r="C134" s="26">
+      <c r="C134" s="22">
         <f t="shared" si="8"/>
         <v>5556</v>
       </c>
-      <c r="D134" s="32">
+      <c r="D134" s="28">
         <v>45</v>
       </c>
-      <c r="E134" s="28">
+      <c r="E134" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G134" s="36">
+      <c r="G134" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="26">
+      <c r="A135" s="22">
         <f t="shared" si="12"/>
         <v>7.2463768115942031</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="22">
         <f t="shared" si="7"/>
         <v>476</v>
       </c>
-      <c r="C135" s="26">
+      <c r="C135" s="22">
         <f t="shared" si="8"/>
         <v>6250</v>
       </c>
-      <c r="D135" s="32">
+      <c r="D135" s="28">
         <v>40</v>
       </c>
-      <c r="E135" s="28">
+      <c r="E135" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F135" s="28">
+      <c r="F135" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G135" s="36">
+      <c r="G135" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="26">
+      <c r="A136" s="22">
         <f t="shared" si="12"/>
         <v>6.3405797101449277</v>
       </c>
-      <c r="B136" s="26">
+      <c r="B136" s="22">
         <f t="shared" si="7"/>
         <v>544</v>
       </c>
-      <c r="C136" s="26">
+      <c r="C136" s="22">
         <f t="shared" si="8"/>
         <v>7143</v>
       </c>
-      <c r="D136" s="32">
+      <c r="D136" s="28">
         <v>35</v>
       </c>
-      <c r="E136" s="28">
+      <c r="E136" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F136" s="28">
+      <c r="F136" s="24">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G136" s="36">
+      <c r="G136" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="26">
+      <c r="A137" s="22">
         <f t="shared" si="12"/>
         <v>5.4347826086956523</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="22">
         <f t="shared" si="7"/>
         <v>635</v>
       </c>
-      <c r="C137" s="26">
+      <c r="C137" s="22">
         <f t="shared" si="8"/>
         <v>8333</v>
       </c>
-      <c r="D137" s="32">
+      <c r="D137" s="28">
         <v>30</v>
       </c>
-      <c r="E137" s="28">
+      <c r="E137" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F137" s="28">
+      <c r="F137" s="24">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G137" s="36">
+      <c r="G137" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="26">
+      <c r="A138" s="22">
         <f t="shared" si="12"/>
         <v>4.5289855072463769</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="22">
         <f t="shared" si="7"/>
         <v>762</v>
       </c>
-      <c r="C138" s="26">
+      <c r="C138" s="22">
         <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="D138" s="32">
+      <c r="D138" s="28">
         <v>25</v>
       </c>
-      <c r="E138" s="28">
+      <c r="E138" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F138" s="28">
+      <c r="F138" s="24">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G138" s="36">
+      <c r="G138" s="32">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="26">
+      <c r="A139" s="22">
         <f t="shared" si="12"/>
         <v>3.6231884057971016</v>
       </c>
-      <c r="B139" s="26">
+      <c r="B139" s="22">
         <f t="shared" si="7"/>
         <v>952</v>
       </c>
-      <c r="C139" s="26">
+      <c r="C139" s="22">
         <f t="shared" si="8"/>
         <v>12500</v>
       </c>
-      <c r="D139" s="32">
+      <c r="D139" s="28">
         <v>20</v>
       </c>
-      <c r="E139" s="28">
+      <c r="E139" s="24">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="F139" s="28">
+      <c r="F139" s="24">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G139" s="36">
+      <c r="G139" s="32">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="26">
+      <c r="A140" s="22">
         <f t="shared" si="12"/>
         <v>2.7173913043478262</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="22">
         <f t="shared" ref="B140:B141" si="13">ROUND($E$10/D140,0)</f>
         <v>1270</v>
       </c>
-      <c r="C140" s="26">
+      <c r="C140" s="22">
         <f t="shared" ref="C140:C141" si="14">ROUND($F$10/D140,0)</f>
         <v>16667</v>
       </c>
-      <c r="D140" s="32">
+      <c r="D140" s="28">
         <v>15</v>
       </c>
-      <c r="E140" s="28">
+      <c r="E140" s="24">
         <f t="shared" ref="E140:E141" si="15">TRUNC(((E$7-$E$8)*256)/(B140+1))+E$6</f>
         <v>10</v>
       </c>
-      <c r="F140" s="28">
+      <c r="F140" s="24">
         <f t="shared" ref="F140:F141" si="16">TRUNC((($F$7-$F$8)*256)/C140)+F$6</f>
         <v>4</v>
       </c>
-      <c r="G140" s="36">
+      <c r="G140" s="32">
         <f t="shared" ref="G140:G141" si="17">TRUNC((($F$7-$F$8+$G$5)*256)/(C140+F$8))+F$6</f>
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="26">
+      <c r="A141" s="22">
         <f t="shared" si="12"/>
         <v>1.8115942028985508</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B141" s="22">
         <f t="shared" si="13"/>
         <v>1905</v>
       </c>
-      <c r="C141" s="26">
+      <c r="C141" s="22">
         <f t="shared" si="14"/>
         <v>25000</v>
       </c>
-      <c r="D141" s="34">
+      <c r="D141" s="30">
         <v>10</v>
       </c>
-      <c r="E141" s="28">
+      <c r="E141" s="24">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="F141" s="28">
+      <c r="F141" s="24">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="G141" s="36">
+      <c r="G141" s="32">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H35:S46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9643,76 +9407,76 @@
   </cols>
   <sheetData>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="M10" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="60"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="M10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <f t="shared" ref="D12:D13" si="0">ROUND(E12/41.4,0)</f>
         <v>121</v>
       </c>
       <c r="E12">
         <v>5000</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <f t="shared" ref="F12:F13" si="1">E12/60</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <f t="shared" ref="G12:G13" si="2">F12*8</f>
         <v>666.66666666666663</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <f t="shared" ref="H12:H13" si="3">1/(256*G12)*1000000</f>
         <v>5.859375</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="41">
         <f t="shared" ref="I12:I13" si="4">H12/4</f>
         <v>1.46484375</v>
       </c>
@@ -9723,40 +9487,40 @@
       <c r="L12">
         <v>450</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="41">
         <f t="shared" ref="M12" si="5">1/(256*L12)*1000000</f>
         <v>8.6805555555555554</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="41">
         <f t="shared" ref="N12" si="6">M12/4</f>
         <v>2.1701388888888888</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="41">
         <f>N12*10</f>
         <v>21.701388888888889</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E13">
         <v>4500</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="41">
         <f t="shared" si="3"/>
         <v>6.510416666666667</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="41">
         <f t="shared" si="4"/>
         <v>1.6276041666666667</v>
       </c>
@@ -9767,43 +9531,43 @@
       <c r="L13">
         <v>333</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="41">
         <f t="shared" ref="M13:M15" si="8">1/(256*L13)*1000000</f>
         <v>11.73048048048048</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="41">
         <f t="shared" ref="N13:N15" si="9">M13/4</f>
         <v>2.9326201201201201</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="41">
         <f t="shared" ref="O13:O15" si="10">N13*10</f>
         <v>29.326201201201201</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="46">
+        <v>31</v>
+      </c>
+      <c r="D14" s="42">
         <f>ROUND(E14/41.4,0)</f>
         <v>97</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="42">
         <v>4000</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="42">
         <f t="shared" ref="F14:F23" si="11">E14/60</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="42">
         <f t="shared" ref="G14:G23" si="12">F14*8</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="43">
         <f t="shared" ref="H14:H23" si="13">1/(256*G14)*1000000</f>
         <v>7.32421875</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="43">
         <f t="shared" ref="I14:I23" si="14">H14/4</f>
         <v>1.8310546875</v>
       </c>
@@ -9814,40 +9578,40 @@
       <c r="L14">
         <v>200</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="41">
         <f t="shared" si="8"/>
         <v>19.53125</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="41">
         <f t="shared" si="9"/>
         <v>4.8828125</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="41">
         <f t="shared" si="10"/>
         <v>48.828125</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <f t="shared" ref="D15:D23" si="15">ROUND(E15/41.4,0)</f>
         <v>85</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>3500</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <f t="shared" si="11"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <f t="shared" si="12"/>
         <v>466.66666666666669</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="41">
         <f t="shared" si="13"/>
         <v>8.3705357142857153</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="41">
         <f t="shared" si="14"/>
         <v>2.0926339285714288</v>
       </c>
@@ -9858,215 +9622,215 @@
       <c r="L15">
         <v>100</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="41">
         <f t="shared" si="8"/>
         <v>39.0625</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="41">
         <f t="shared" si="9"/>
         <v>9.765625</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="41">
         <f t="shared" si="10"/>
         <v>97.65625</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <f t="shared" si="15"/>
         <v>72</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>3000</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="41">
         <f t="shared" si="13"/>
         <v>9.765625</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="41">
         <f t="shared" si="14"/>
         <v>2.44140625</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="22">
         <v>2500</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <f t="shared" si="11"/>
         <v>41.666666666666664</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <f t="shared" si="12"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="41">
         <f t="shared" si="13"/>
         <v>11.71875</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="41">
         <f t="shared" si="14"/>
         <v>2.9296875</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>2000</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <f t="shared" si="11"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <f t="shared" si="12"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="41">
         <f t="shared" si="13"/>
         <v>14.6484375</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="41">
         <f t="shared" si="14"/>
         <v>3.662109375</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <f t="shared" si="15"/>
         <v>36</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="22">
         <v>1500</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="41">
         <f t="shared" si="13"/>
         <v>19.53125</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="41">
         <f t="shared" si="14"/>
         <v>4.8828125</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="22">
         <v>1000</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <f t="shared" si="11"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <f t="shared" si="12"/>
         <v>133.33333333333334</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <f t="shared" si="13"/>
         <v>29.296875</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="41">
         <f t="shared" si="14"/>
         <v>7.32421875</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>500</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="22">
         <f t="shared" si="11"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <f t="shared" si="12"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="41">
         <f t="shared" si="13"/>
         <v>58.59375</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="41">
         <f t="shared" si="14"/>
         <v>14.6484375</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>250</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="22">
         <f t="shared" si="11"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <f t="shared" si="12"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="41">
         <f t="shared" si="13"/>
         <v>117.1875</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="41">
         <f t="shared" si="14"/>
         <v>29.296875</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="26">
+      <c r="D23" s="22">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="22">
         <v>125</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="22">
         <f t="shared" si="11"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <f t="shared" si="12"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="41">
         <f t="shared" si="13"/>
         <v>234.375</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="41">
         <f t="shared" si="14"/>
         <v>58.59375</v>
       </c>
